--- a/backend/data/ventas.xlsx
+++ b/backend/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1806,9 +1806,529 @@
         <v/>
       </c>
     </row>
+    <row r="55">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="str">
+        <v>2025-06-29T17:38:10.075Z</v>
+      </c>
+      <c r="C55">
+        <v>7500</v>
+      </c>
+      <c r="D55">
+        <v>3000</v>
+      </c>
+      <c r="E55" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="str">
+        <v>2025-06-29T17:45:44.019Z</v>
+      </c>
+      <c r="C56">
+        <v>4000</v>
+      </c>
+      <c r="D56">
+        <v>1950</v>
+      </c>
+      <c r="E56" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" t="str">
+        <v>2025-06-29T17:47:26.560Z</v>
+      </c>
+      <c r="C57">
+        <v>7500</v>
+      </c>
+      <c r="D57">
+        <v>3800</v>
+      </c>
+      <c r="E57" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="str">
+        <v>2025-06-29T17:50:50.323Z</v>
+      </c>
+      <c r="C58">
+        <v>12500</v>
+      </c>
+      <c r="D58">
+        <v>5550</v>
+      </c>
+      <c r="E58" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="str">
+        <v>2025-06-29T17:51:55.661Z</v>
+      </c>
+      <c r="C59">
+        <v>1500</v>
+      </c>
+      <c r="D59">
+        <v>700</v>
+      </c>
+      <c r="E59" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2025-06-29T17:54:11.420Z</v>
+      </c>
+      <c r="C60">
+        <v>6500</v>
+      </c>
+      <c r="D60">
+        <v>3250</v>
+      </c>
+      <c r="E60" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2025-06-29T17:54:42.325Z</v>
+      </c>
+      <c r="C61">
+        <v>3000</v>
+      </c>
+      <c r="D61">
+        <v>1600</v>
+      </c>
+      <c r="E61" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62" t="str">
+        <v>2025-06-29T17:55:48.556Z</v>
+      </c>
+      <c r="C62">
+        <v>2000</v>
+      </c>
+      <c r="D62">
+        <v>1100</v>
+      </c>
+      <c r="E62" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63" t="str">
+        <v>2025-06-29T17:59:19.592Z</v>
+      </c>
+      <c r="C63">
+        <v>6000</v>
+      </c>
+      <c r="D63">
+        <v>3100</v>
+      </c>
+      <c r="E63" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="str">
+        <v>2025-06-29T18:01:30.093Z</v>
+      </c>
+      <c r="C64">
+        <v>12500</v>
+      </c>
+      <c r="D64">
+        <v>5500</v>
+      </c>
+      <c r="E64" t="str">
+        <v>transferencia</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="str">
+        <v>2025-06-29T18:02:36.095Z</v>
+      </c>
+      <c r="C65">
+        <v>3500</v>
+      </c>
+      <c r="D65">
+        <v>1800</v>
+      </c>
+      <c r="E65" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="str">
+        <v>2025-06-29T18:03:36.181Z</v>
+      </c>
+      <c r="C66">
+        <v>3000</v>
+      </c>
+      <c r="D66">
+        <v>1550</v>
+      </c>
+      <c r="E66" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2025-06-29T18:04:14.390Z</v>
+      </c>
+      <c r="C67">
+        <v>10000</v>
+      </c>
+      <c r="D67">
+        <v>5000</v>
+      </c>
+      <c r="E67" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2025-06-29T18:04:27.647Z</v>
+      </c>
+      <c r="C68">
+        <v>1000</v>
+      </c>
+      <c r="D68">
+        <v>500</v>
+      </c>
+      <c r="E68" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2025-06-29T18:06:49.339Z</v>
+      </c>
+      <c r="C69">
+        <v>5000</v>
+      </c>
+      <c r="D69">
+        <v>2500</v>
+      </c>
+      <c r="E69" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2025-06-29T18:07:30.900Z</v>
+      </c>
+      <c r="C70">
+        <v>1000</v>
+      </c>
+      <c r="D70">
+        <v>500</v>
+      </c>
+      <c r="E70" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2025-06-29T18:24:19.576Z</v>
+      </c>
+      <c r="C71">
+        <v>2500</v>
+      </c>
+      <c r="D71">
+        <v>1250</v>
+      </c>
+      <c r="E71" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2025-06-29T18:25:21.034Z</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2025-06-29T18:44:44.805Z</v>
+      </c>
+      <c r="C73">
+        <v>1000</v>
+      </c>
+      <c r="D73">
+        <v>550</v>
+      </c>
+      <c r="E73" t="str">
+        <v>efectivo</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2025-06-29T18:52:36.888Z</v>
+      </c>
+      <c r="C74">
+        <v>7500</v>
+      </c>
+      <c r="D74">
+        <v>3000</v>
+      </c>
+      <c r="E74" t="str">
+        <v>transferencia</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H74"/>
   </ignoredErrors>
 </worksheet>
 </file>